--- a/Contents/2023MathorCup/C-Solution/Data/err.xlsx
+++ b/Contents/2023MathorCup/C-Solution/Data/err.xlsx
@@ -76,7 +76,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0</v>
+        <v>1.6390531151770527</v>
       </c>
     </row>
     <row r="5">
@@ -91,7 +91,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0</v>
+        <v>0.081926891127767784</v>
       </c>
     </row>
     <row r="8">
@@ -101,7 +101,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0</v>
+        <v>0.10737521085151426</v>
       </c>
     </row>
     <row r="10">
@@ -116,12 +116,12 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.67234226492315119</v>
+        <v>0.32227278797031639</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0</v>
+        <v>0.0023263229855407606</v>
       </c>
     </row>
     <row r="14">
@@ -166,17 +166,17 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0</v>
+        <v>0.099820296528256358</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.87272423905663399</v>
+        <v>0.089146144567324004</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0</v>
+        <v>0.057652232406833322</v>
       </c>
     </row>
     <row r="25">
@@ -186,17 +186,17 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.53991812555203944</v>
+        <v>0.10895466176804226</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.98480514311310186</v>
+        <v>0.095185002121477166</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0</v>
+        <v>0.087673945844130421</v>
       </c>
     </row>
     <row r="29">
@@ -206,7 +206,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0</v>
+        <v>0.1242903854500102</v>
       </c>
     </row>
     <row r="31">
@@ -216,7 +216,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0</v>
+        <v>0.086560529054392349</v>
       </c>
     </row>
     <row r="33">
@@ -236,12 +236,12 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0</v>
+        <v>0.085987223566585266</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0</v>
+        <v>0.17917951020115999</v>
       </c>
     </row>
     <row r="38">
@@ -256,22 +256,22 @@
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.9238911381545204</v>
+        <v>0.078621758566419106</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>1.2509448786599444</v>
+        <v>0.097727402802847779</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0</v>
+        <v>0.094953103600290911</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.92429571867830485</v>
+        <v>0.089948961639190667</v>
       </c>
     </row>
     <row r="44">
@@ -281,7 +281,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0</v>
+        <v>0.31280508148383585</v>
       </c>
     </row>
     <row r="46">
@@ -291,17 +291,17 @@
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.54474108169373148</v>
+        <v>0.12140566303012333</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.9414142929952185</v>
+        <v>0.092228120256304238</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0</v>
+        <v>0.084618961238207974</v>
       </c>
     </row>
     <row r="50">
@@ -316,7 +316,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0</v>
+        <v>0.10971026660596794</v>
       </c>
     </row>
     <row r="53">
@@ -326,17 +326,17 @@
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.9193648612771681</v>
+        <v>0.091933843340465185</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0</v>
+        <v>0.088378168411986327</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0</v>
+        <v>0.090490550855921073</v>
       </c>
     </row>
     <row r="57">
@@ -351,17 +351,17 @@
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0</v>
+        <v>0.17602479937879176</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0.90436623722094545</v>
+        <v>0.10864511028704463</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0.89929894711259561</v>
+        <v>0.11805644309925532</v>
       </c>
     </row>
     <row r="62">
@@ -401,7 +401,7 @@
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>0</v>
+        <v>0.20865144747096556</v>
       </c>
     </row>
     <row r="70">
@@ -411,12 +411,12 @@
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>0</v>
+        <v>3.0170168411938252</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>0</v>
+        <v>0.34229453720580083</v>
       </c>
     </row>
     <row r="73">
@@ -426,22 +426,22 @@
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>1.1395024544447119</v>
+        <v>0.098264320838726077</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>0.58472174362383189</v>
+        <v>0.08983030472706191</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>0</v>
+        <v>0.10108458422893221</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>0.93215379751556349</v>
+        <v>0.092001903124657586</v>
       </c>
     </row>
     <row r="78">
@@ -451,17 +451,17 @@
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>0.69648088069687308</v>
+        <v>0.18546845725763611</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>0.1151740734327002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>1.1065662919539814</v>
+        <v>0.093745704975520386</v>
       </c>
     </row>
     <row r="82">
@@ -471,7 +471,7 @@
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>0</v>
+        <v>0.23073616955483969</v>
       </c>
     </row>
     <row r="84">
@@ -496,17 +496,17 @@
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>1.0915923236850946</v>
+        <v>0.10190481389680635</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>0</v>
+        <v>0.11496119417785948</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>0</v>
+        <v>0.41939000917264624</v>
       </c>
     </row>
     <row r="91">
@@ -531,7 +531,7 @@
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>0</v>
+        <v>0.091289973919977715</v>
       </c>
     </row>
     <row r="96">
@@ -541,12 +541,12 @@
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>0</v>
+        <v>1.1405133138670847</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>0</v>
+        <v>0.04466174115844352</v>
       </c>
     </row>
     <row r="99">
@@ -556,17 +556,17 @@
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>0.83013366765709617</v>
+        <v>0.077166879552359943</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>0</v>
+        <v>0.092024729665725821</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>0.84488727240814743</v>
+        <v>0.094017817572832244</v>
       </c>
     </row>
     <row r="103">
@@ -576,7 +576,7 @@
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>0.66765107693466186</v>
+        <v>0.013650765814338111</v>
       </c>
     </row>
     <row r="105">
@@ -586,22 +586,22 @@
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>0.86719214138231737</v>
+        <v>0.094298689330080385</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>0</v>
+        <v>0.61066905781956471</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>0</v>
+        <v>0.25482772023261707</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>0</v>
+        <v>0.15218859828776432</v>
       </c>
     </row>
     <row r="110">
@@ -611,7 +611,7 @@
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>0</v>
+        <v>0.093841304273755602</v>
       </c>
     </row>
     <row r="112">
@@ -621,7 +621,7 @@
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>0</v>
+        <v>0.096937810891317977</v>
       </c>
     </row>
     <row r="114">
@@ -631,12 +631,12 @@
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>0</v>
+        <v>0.08763322945768362</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>0</v>
+        <v>0.10973882175933003</v>
       </c>
     </row>
     <row r="117">
@@ -651,7 +651,7 @@
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>1.1146112384283979</v>
+        <v>0.10296698987263846</v>
       </c>
     </row>
     <row r="120">
@@ -666,7 +666,7 @@
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>0</v>
+        <v>0.095741209492034962</v>
       </c>
     </row>
     <row r="123">
@@ -676,12 +676,12 @@
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>0</v>
+        <v>2.2095793251726019</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>0</v>
+        <v>0.074536534236171514</v>
       </c>
     </row>
     <row r="126">
@@ -691,12 +691,12 @@
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>0.95065484044674242</v>
+        <v>0.060106588872414005</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>0</v>
+        <v>0.09538820237784354</v>
       </c>
     </row>
     <row r="129">
@@ -726,7 +726,7 @@
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>0</v>
+        <v>0.13520342559812978</v>
       </c>
     </row>
     <row r="135">
@@ -741,7 +741,7 @@
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>0</v>
+        <v>1.6361347228158143</v>
       </c>
     </row>
     <row r="138">
@@ -751,22 +751,22 @@
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>0.95190767156173739</v>
+        <v>0.10970202688127711</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>0.95962751449063366</v>
+        <v>0.093079926533924662</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>0</v>
+        <v>0.065687197990371135</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>0</v>
+        <v>0.17516546392890417</v>
       </c>
     </row>
     <row r="143">
@@ -776,12 +776,12 @@
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>0</v>
+        <v>0.31396924022173872</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>1.0771629834921723</v>
+        <v>0.023329722581785874</v>
       </c>
     </row>
     <row r="146">
@@ -796,7 +796,7 @@
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>0</v>
+        <v>1.1534415487060432</v>
       </c>
     </row>
     <row r="149">
@@ -816,17 +816,17 @@
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>0</v>
+        <v>0.69648088069687308</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>0</v>
+        <v>0.11260436907393863</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>0</v>
+        <v>0.0759855179683641</v>
       </c>
     </row>
     <row r="155">
@@ -836,7 +836,7 @@
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>0.98389570459028564</v>
+        <v>0.083516248019515071</v>
       </c>
     </row>
     <row r="157">
@@ -846,32 +846,32 @@
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>2.5509501467373168</v>
+        <v>0.094929864946939571</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>0.95411739924589878</v>
+        <v>0.093944633932296864</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>0</v>
+        <v>0.09209495103429309</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>1.0000108111186983</v>
+        <v>0.11198145837528001</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>0</v>
+        <v>0.1151740734327002</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>0.05522761581735313</v>
+        <v>0.66723557905421416</v>
       </c>
     </row>
     <row r="164">
@@ -881,12 +881,12 @@
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>0.90246372606550296</v>
+        <v>0.095969236683318679</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>0</v>
+        <v>0.19160710322165239</v>
       </c>
     </row>
     <row r="167">
@@ -896,12 +896,12 @@
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>0</v>
+        <v>0.3065186706080989</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>0.89138630831336441</v>
+        <v>0.12525657968497114</v>
       </c>
     </row>
     <row r="170">
@@ -911,12 +911,12 @@
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>1.4668519576446406</v>
+        <v>0.87585584962940544</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>0.98143407843978347</v>
+        <v>0.1055349684715202</v>
       </c>
     </row>
     <row r="173">
@@ -941,52 +941,52 @@
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>0</v>
+        <v>0.89215149978829889</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>0</v>
+        <v>0.13079953816632495</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>0.84410953505623354</v>
+        <v>0.096209098011115962</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>1.5401375137266253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>0.93930975101780523</v>
+        <v>0.05600328832355312</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>0</v>
+        <v>0.78561993519921536</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>1.006597675522608</v>
+        <v>0.094496524979383656</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>0</v>
+        <v>0.0070195006515429747</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>0</v>
+        <v>0.12672218449727393</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>0</v>
+        <v>0.89940885732433473</v>
       </c>
     </row>
     <row r="187">
@@ -996,7 +996,7 @@
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>1.4322121653749449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -1006,22 +1006,22 @@
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>5.2357163471213068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>0.66972006837396136</v>
+        <v>0.17568329145354172</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>0</v>
+        <v>0.095931988552894198</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>0.76453475882782607</v>
+        <v>0.23412117105314126</v>
       </c>
     </row>
     <row r="194">
@@ -1031,7 +1031,7 @@
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>0.80989969987677313</v>
+        <v>0.084945300960149683</v>
       </c>
     </row>
     <row r="196">
@@ -1041,12 +1041,12 @@
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>0.69623284404175978</v>
+        <v>0.095135703757083342</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>0</v>
+        <v>0.088043553674349601</v>
       </c>
     </row>
     <row r="199">
@@ -1061,7 +1061,7 @@
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>0.70652601789313751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -1076,12 +1076,12 @@
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>0</v>
+        <v>0.08987642849266872</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>0.005658845009376569</v>
+        <v>0.33897253043007269</v>
       </c>
     </row>
     <row r="206">
@@ -1091,7 +1091,7 @@
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>0.16502373919436264</v>
+        <v>0.094303530383470682</v>
       </c>
     </row>
     <row r="208">
@@ -1101,12 +1101,12 @@
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>0.07675131084743532</v>
+        <v>0.66765107693466186</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>0</v>
+        <v>0.088931088262454966</v>
       </c>
     </row>
     <row r="211">
@@ -1121,7 +1121,7 @@
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>0.9577481301067543</v>
+        <v>0.10579049817324994</v>
       </c>
     </row>
     <row r="214">
@@ -1136,42 +1136,42 @@
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>0.56661455706744801</v>
+        <v>0.08635575390103252</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>0</v>
+        <v>0.089746708448870491</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>0.53639195563794884</v>
+        <v>0.10367890899886606</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>0</v>
+        <v>0.10025442071755343</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>0.48024072700270837</v>
+        <v>0.095488364902104994</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>1.5720634832579219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>0</v>
+        <v>0.092296318526666671</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>0</v>
+        <v>0.091110494298210665</v>
       </c>
     </row>
     <row r="224">
@@ -1206,7 +1206,7 @@
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>1.1171347867287207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -1216,7 +1216,7 @@
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>0</v>
+        <v>0.13778124601177691</v>
       </c>
     </row>
     <row r="233">
@@ -1231,7 +1231,7 @@
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>0</v>
+        <v>1.0459328089759194</v>
       </c>
     </row>
     <row r="236">
@@ -1241,7 +1241,7 @@
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>0.8048995590396868</v>
+        <v>0.082377606598016698</v>
       </c>
     </row>
     <row r="238">
@@ -1271,12 +1271,12 @@
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>0.016746757533520191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>0.67505440740019107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -1286,17 +1286,17 @@
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>1.9912926712740626</v>
+        <v>0.10640643096887871</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>0</v>
+        <v>0.0021733499696216982</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>0.71923803319955892</v>
+        <v>0.92584712637220468</v>
       </c>
     </row>
     <row r="249">
@@ -1311,7 +1311,7 @@
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>0.20712578166230253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -1331,12 +1331,12 @@
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>0.11254397058427922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>0</v>
+        <v>0.11254397058427922</v>
       </c>
     </row>
     <row r="257">
@@ -1376,7 +1376,7 @@
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>0</v>
+        <v>1.0206157686109269e-05</v>
       </c>
     </row>
     <row r="265">
@@ -1391,17 +1391,17 @@
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>0.69573712466897419</v>
+        <v>0.28747317202434669</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>0</v>
+        <v>0.098618418674363398</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>0</v>
+        <v>0.11914024248790535</v>
       </c>
     </row>
     <row r="270">
@@ -1421,12 +1421,12 @@
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>0</v>
+        <v>0.088916201101404649</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>0</v>
+        <v>0.038733061472138799</v>
       </c>
     </row>
     <row r="275">
@@ -1436,7 +1436,7 @@
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>0</v>
+        <v>0.37944061750960412</v>
       </c>
     </row>
     <row r="277">
@@ -1446,12 +1446,12 @@
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>0</v>
+        <v>0.2424151759797919</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>0</v>
+        <v>0.16472268922094446</v>
       </c>
     </row>
     <row r="280">
@@ -1481,12 +1481,12 @@
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>0</v>
+        <v>1.5401375137266253</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>0</v>
+        <v>0.10167012666279711</v>
       </c>
     </row>
     <row r="287">
@@ -1496,17 +1496,17 @@
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>0</v>
+        <v>6.0479343220290157e-07</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>0</v>
+        <v>0.10597166434785125</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>0</v>
+        <v>0.041536595488353312</v>
       </c>
     </row>
     <row r="291">
@@ -1521,7 +1521,7 @@
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>0</v>
+        <v>1.4322121653749449</v>
       </c>
     </row>
     <row r="294">
@@ -1531,12 +1531,12 @@
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>0</v>
+        <v>5.2357163471213068</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>0</v>
+        <v>0.66972006837396136</v>
       </c>
     </row>
     <row r="297">
@@ -1546,12 +1546,12 @@
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>0.69760199975902426</v>
+        <v>0.76453475882782607</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>0.67122746602034367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -1561,22 +1561,22 @@
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>0</v>
+        <v>0.34890859646481837</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
-        <v>0.79807487057509618</v>
+        <v>0.099422608901827622</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
-        <v>0.76459526536369327</v>
+        <v>2.650509314951663</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>0</v>
+        <v>0.00091625717068417878</v>
       </c>
     </row>
     <row r="305">
@@ -1586,7 +1586,7 @@
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>0.024686662089414595</v>
+        <v>0.70652601789313751</v>
       </c>
     </row>
     <row r="307">
@@ -1596,17 +1596,17 @@
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>0.78738054107690181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>0.66671493258244274</v>
+        <v>0.097861818900249808</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>0</v>
+        <v>0.005658845009376569</v>
       </c>
     </row>
     <row r="311">
@@ -1641,7 +1641,7 @@
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>0.0099199516905697695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -1666,7 +1666,7 @@
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>1.1865769899620784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -1681,12 +1681,12 @@
     </row>
     <row r="325">
       <c r="A325" s="0">
-        <v>0.82952276906280653</v>
+        <v>0.00014913738934001276</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
-        <v>0</v>
+        <v>1.5720634832579219</v>
       </c>
     </row>
     <row r="327">
@@ -1701,7 +1701,7 @@
     </row>
     <row r="329">
       <c r="A329" s="0">
-        <v>0.9269680040629783</v>
+        <v>0.0019728962317436239</v>
       </c>
     </row>
     <row r="330">
@@ -1716,42 +1716,42 @@
     </row>
     <row r="332">
       <c r="A332" s="0">
-        <v>0</v>
+        <v>0.089677670743654514</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
-        <v>0</v>
+        <v>0.090005815046029627</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
-        <v>0.85885910744134641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
-        <v>0.25512644831964715</v>
+        <v>1.1171347867287207</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
-        <v>0.67953509937209333</v>
+        <v>0.089710300397755599</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
-        <v>1.2605539004744564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
-        <v>1.2539527365209364</v>
+        <v>0.35479368152694923</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
-        <v>0</v>
+        <v>0.096914091501548283</v>
       </c>
     </row>
     <row r="340">
@@ -1761,32 +1761,32 @@
     </row>
     <row r="341">
       <c r="A341" s="0">
-        <v>0</v>
+        <v>2.7550000141207676e-06</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
-        <v>0</v>
+        <v>0.8048995590396868</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
-        <v>0.73730407523510966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
-        <v>0.013572786549218322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
-        <v>0.67180446662814441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
-        <v>0.056686646160330027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -1796,12 +1796,12 @@
     </row>
     <row r="348">
       <c r="A348" s="0">
-        <v>0.016580354063047708</v>
+        <v>0.016746757533520191</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
-        <v>0.69141414141414126</v>
+        <v>0.67505440740019107</v>
       </c>
     </row>
     <row r="350">
@@ -1811,7 +1811,7 @@
     </row>
     <row r="351">
       <c r="A351" s="0">
-        <v>5.4468008767013165</v>
+        <v>1.9912926712740626</v>
       </c>
     </row>
     <row r="352">
@@ -1821,7 +1821,7 @@
     </row>
     <row r="353">
       <c r="A353" s="0">
-        <v>0</v>
+        <v>0.71923803319955892</v>
       </c>
     </row>
     <row r="354">
@@ -1836,12 +1836,12 @@
     </row>
     <row r="356">
       <c r="A356" s="0">
-        <v>0</v>
+        <v>0.20712578166230253</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0">
-        <v>0.73119393972828206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -1851,7 +1851,7 @@
     </row>
     <row r="359">
       <c r="A359" s="0">
-        <v>1.456313441056275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -1881,7 +1881,7 @@
     </row>
     <row r="365">
       <c r="A365" s="0">
-        <v>0</v>
+        <v>0.00069427010516043503</v>
       </c>
     </row>
     <row r="366">
@@ -1916,7 +1916,7 @@
     </row>
     <row r="372">
       <c r="A372" s="0">
-        <v>0.13328619416531831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -1941,22 +1941,22 @@
     </row>
     <row r="377">
       <c r="A377" s="0">
-        <v>0.0011146357461459995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0">
-        <v>3.9056199465619375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0">
-        <v>1.3225906882657545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0">
-        <v>0.68370113158898216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
@@ -1971,12 +1971,12 @@
     </row>
     <row r="383">
       <c r="A383" s="0">
-        <v>0.70120095757959833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0">
-        <v>0.80893774606719848</v>
+        <v>0.42653980423660942</v>
       </c>
     </row>
     <row r="385">
@@ -1996,12 +1996,12 @@
     </row>
     <row r="388">
       <c r="A388" s="0">
-        <v>0.83900604484037089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0">
-        <v>0.48755839125306205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -2016,7 +2016,7 @@
     </row>
     <row r="392">
       <c r="A392" s="0">
-        <v>0.68647249414117351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -2031,12 +2031,12 @@
     </row>
     <row r="395">
       <c r="A395" s="0">
-        <v>2.2436377687461886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0">
-        <v>0.6836763336794548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -2071,12 +2071,12 @@
     </row>
     <row r="403">
       <c r="A403" s="0">
-        <v>0</v>
+        <v>0.69760199975902426</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="0">
-        <v>0</v>
+        <v>0.67122746602034367</v>
       </c>
     </row>
     <row r="405">
@@ -2096,7 +2096,7 @@
     </row>
     <row r="408">
       <c r="A408" s="0">
-        <v>0</v>
+        <v>0.76459526536369327</v>
       </c>
     </row>
     <row r="409">
@@ -2106,12 +2106,12 @@
     </row>
     <row r="410">
       <c r="A410" s="0">
-        <v>0</v>
+        <v>0.51090528231956367</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="0">
-        <v>0</v>
+        <v>0.024686662089414595</v>
       </c>
     </row>
     <row r="412">
@@ -2121,12 +2121,12 @@
     </row>
     <row r="413">
       <c r="A413" s="0">
-        <v>0</v>
+        <v>0.78738054107690181</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="0">
-        <v>0</v>
+        <v>0.66671493258244274</v>
       </c>
     </row>
     <row r="415">
@@ -2166,7 +2166,7 @@
     </row>
     <row r="422">
       <c r="A422" s="0">
-        <v>0</v>
+        <v>0.0099199516905697695</v>
       </c>
     </row>
     <row r="423">
@@ -2191,7 +2191,7 @@
     </row>
     <row r="427">
       <c r="A427" s="0">
-        <v>0</v>
+        <v>1.1865769899620784</v>
       </c>
     </row>
     <row r="428">
@@ -2206,7 +2206,7 @@
     </row>
     <row r="430">
       <c r="A430" s="0">
-        <v>0</v>
+        <v>0.82952276906280653</v>
       </c>
     </row>
     <row r="431">
@@ -2226,7 +2226,7 @@
     </row>
     <row r="434">
       <c r="A434" s="0">
-        <v>0</v>
+        <v>0.9269680040629783</v>
       </c>
     </row>
     <row r="435">
@@ -2256,22 +2256,22 @@
     </row>
     <row r="440">
       <c r="A440" s="0">
-        <v>0</v>
+        <v>0.25512644831964715</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="0">
-        <v>0</v>
+        <v>0.67953509937209333</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="0">
-        <v>0</v>
+        <v>1.2605539004744564</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="0">
-        <v>0</v>
+        <v>1.2539527365209364</v>
       </c>
     </row>
     <row r="444">
@@ -2296,22 +2296,22 @@
     </row>
     <row r="448">
       <c r="A448" s="0">
-        <v>0</v>
+        <v>0.73730407523510966</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="0">
-        <v>0</v>
+        <v>0.013572786549218322</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="0">
-        <v>0</v>
+        <v>0.67180446662814441</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="0">
-        <v>0</v>
+        <v>0.056686646160330027</v>
       </c>
     </row>
     <row r="452">
@@ -2321,12 +2321,12 @@
     </row>
     <row r="453">
       <c r="A453" s="0">
-        <v>0</v>
+        <v>0.016580354063047708</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="0">
-        <v>0</v>
+        <v>0.69141414141414126</v>
       </c>
     </row>
     <row r="455">
@@ -2336,7 +2336,7 @@
     </row>
     <row r="456">
       <c r="A456" s="0">
-        <v>0</v>
+        <v>5.4468008767013165</v>
       </c>
     </row>
     <row r="457">
@@ -2366,7 +2366,7 @@
     </row>
     <row r="462">
       <c r="A462" s="0">
-        <v>0</v>
+        <v>0.73119393972828206</v>
       </c>
     </row>
     <row r="463">
@@ -2376,7 +2376,7 @@
     </row>
     <row r="464">
       <c r="A464" s="0">
-        <v>0.0020364377684125301</v>
+        <v>1.456313441056275</v>
       </c>
     </row>
     <row r="465">
@@ -2411,7 +2411,7 @@
     </row>
     <row r="471">
       <c r="A471" s="0">
-        <v>0.84838108808699308</v>
+        <v>0.086802187077968065</v>
       </c>
     </row>
     <row r="472">
@@ -2436,12 +2436,12 @@
     </row>
     <row r="476">
       <c r="A476" s="0">
-        <v>0.89236178137208666</v>
+        <v>0.099153806048657589</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="0">
-        <v>0</v>
+        <v>0.13328619416531831</v>
       </c>
     </row>
     <row r="478">
@@ -2466,22 +2466,22 @@
     </row>
     <row r="482">
       <c r="A482" s="0">
-        <v>0.0069682221588788784</v>
+        <v>0.0011146357461459995</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="0">
-        <v>0.00083348850259481327</v>
+        <v>3.9056199465619375</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="0">
-        <v>0</v>
+        <v>1.3225906882657545</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="0">
-        <v>0</v>
+        <v>0.68370113158898216</v>
       </c>
     </row>
     <row r="486">
@@ -2496,17 +2496,17 @@
     </row>
     <row r="488">
       <c r="A488" s="0">
-        <v>0</v>
+        <v>0.70120095757959833</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="0">
-        <v>0</v>
+        <v>0.80893774606719848</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="0">
-        <v>0.92153907532413715</v>
+        <v>0.12950464128200498</v>
       </c>
     </row>
     <row r="491">
@@ -2521,12 +2521,12 @@
     </row>
     <row r="493">
       <c r="A493" s="0">
-        <v>0.0036939591236993074</v>
+        <v>0.83900604484037089</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="0">
-        <v>0</v>
+        <v>0.48755839125306205</v>
       </c>
     </row>
     <row r="495">
@@ -2541,7 +2541,7 @@
     </row>
     <row r="497">
       <c r="A497" s="0">
-        <v>0</v>
+        <v>0.68647249414117351</v>
       </c>
     </row>
     <row r="498">
@@ -2556,17 +2556,17 @@
     </row>
     <row r="500">
       <c r="A500" s="0">
-        <v>0.0070797115267108484</v>
+        <v>2.2436377687461886</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="0">
-        <v>0.39633963193564692</v>
+        <v>0.6836763336794548</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="0">
-        <v>0.52974897775604191</v>
+        <v>0.13082370461191106</v>
       </c>
     </row>
     <row r="503">
@@ -2596,12 +2596,12 @@
     </row>
     <row r="508">
       <c r="A508" s="0">
-        <v>1.3438964892272436</v>
+        <v>0.021035437256797827</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="0">
-        <v>0.92511598668833817</v>
+        <v>0.087630902357857546</v>
       </c>
     </row>
     <row r="510">
@@ -2616,7 +2616,7 @@
     </row>
     <row r="512">
       <c r="A512" s="0">
-        <v>0.91858831842518995</v>
+        <v>0.092733505322345394</v>
       </c>
     </row>
     <row r="513">
@@ -2646,7 +2646,7 @@
     </row>
     <row r="518">
       <c r="A518" s="0">
-        <v>2.0109829261198455</v>
+        <v>0.1121440963801907</v>
       </c>
     </row>
     <row r="519">
@@ -2666,17 +2666,17 @@
     </row>
     <row r="522">
       <c r="A522" s="0">
-        <v>0.70778929579768401</v>
+        <v>0.087081224211663075</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="0">
-        <v>0.059864129690964892</v>
+        <v>0.083414899869854342</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="0">
-        <v>1.3219231691228042</v>
+        <v>0.093392625907627105</v>
       </c>
     </row>
     <row r="525">
@@ -2686,7 +2686,7 @@
     </row>
     <row r="526">
       <c r="A526" s="0">
-        <v>0.71007045329303464</v>
+        <v>0.12443771022321798</v>
       </c>
     </row>
     <row r="527">
@@ -2701,7 +2701,7 @@
     </row>
     <row r="529">
       <c r="A529" s="0">
-        <v>0.94678391817083596</v>
+        <v>0.086482537645924396</v>
       </c>
     </row>
     <row r="530">
@@ -2716,27 +2716,27 @@
     </row>
     <row r="532">
       <c r="A532" s="0">
-        <v>1.0536906616891328</v>
+        <v>0.10285769326889516</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="0">
-        <v>0.9207944640608251</v>
+        <v>0.094939139763083977</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="0">
-        <v>0.88305813495060803</v>
+        <v>0.025164211295384761</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="0">
-        <v>0.95956868799827721</v>
+        <v>0.5490035921935118</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="0">
-        <v>0.12470038640390069</v>
+        <v>0.20061834332812081</v>
       </c>
     </row>
     <row r="537">
@@ -2751,12 +2751,12 @@
     </row>
     <row r="539">
       <c r="A539" s="0">
-        <v>0.94382748522160653</v>
+        <v>0.067687180604418862</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="0">
-        <v>0.91169383780663549</v>
+        <v>0.089109155636475396</v>
       </c>
     </row>
     <row r="541">
@@ -2771,7 +2771,7 @@
     </row>
     <row r="543">
       <c r="A543" s="0">
-        <v>0.9614398644195884</v>
+        <v>0.082592805226160734</v>
       </c>
     </row>
     <row r="544">
@@ -2796,7 +2796,7 @@
     </row>
     <row r="548">
       <c r="A548" s="0">
-        <v>0.72036115295240355</v>
+        <v>0.091138716005560783</v>
       </c>
     </row>
     <row r="549">
@@ -2811,7 +2811,7 @@
     </row>
     <row r="551">
       <c r="A551" s="0">
-        <v>1.0492877707380561</v>
+        <v>0.08667469455260067</v>
       </c>
     </row>
     <row r="552">
@@ -2821,12 +2821,12 @@
     </row>
     <row r="553">
       <c r="A553" s="0">
-        <v>0.89844590308455752</v>
+        <v>0.094127219574978507</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="0">
-        <v>0.89514939288659212</v>
+        <v>0.089481440805002435</v>
       </c>
     </row>
     <row r="555">
@@ -2841,7 +2841,7 @@
     </row>
     <row r="557">
       <c r="A557" s="0">
-        <v>0.86760541878691122</v>
+        <v>0.097006045950605302</v>
       </c>
     </row>
     <row r="558">
@@ -2856,27 +2856,27 @@
     </row>
     <row r="560">
       <c r="A560" s="0">
-        <v>4.3900172439234604</v>
+        <v>0.10689779711812074</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="0">
-        <v>0.9340840833775601</v>
+        <v>0.094710062799700706</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="0">
-        <v>0.92443482258618059</v>
+        <v>0.086591389858720891</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="0">
-        <v>0.94020670256605932</v>
+        <v>0.048249675308191457</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="0">
-        <v>0.47699935260171133</v>
+        <v>0.09364798117318561</v>
       </c>
     </row>
     <row r="565">
@@ -2891,12 +2891,12 @@
     </row>
     <row r="567">
       <c r="A567" s="0">
-        <v>0.88256250427608485</v>
+        <v>0.11209911389226314</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="0">
-        <v>1.1228971843800635</v>
+        <v>0.09637827035393999</v>
       </c>
     </row>
     <row r="569">
@@ -2931,17 +2931,17 @@
     </row>
     <row r="575">
       <c r="A575" s="0">
-        <v>0.96167533168178987</v>
+        <v>0.21224057492923665</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="0">
-        <v>0.51686721733759178</v>
+        <v>0.089128855552128336</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="0">
-        <v>0.90177460475788718</v>
+        <v>0.086365085444885914</v>
       </c>
     </row>
     <row r="578">
@@ -2971,7 +2971,7 @@
     </row>
     <row r="583">
       <c r="A583" s="0">
-        <v>0.97412188399717126</v>
+        <v>0.094782578593127942</v>
       </c>
     </row>
     <row r="584">
@@ -2981,7 +2981,7 @@
     </row>
     <row r="585">
       <c r="A585" s="0">
-        <v>0.95632888959581308</v>
+        <v>0.080195948762925809</v>
       </c>
     </row>
     <row r="586">
@@ -3006,7 +3006,7 @@
     </row>
     <row r="590">
       <c r="A590" s="0">
-        <v>0.83848590114173904</v>
+        <v>0.09485158799018488</v>
       </c>
     </row>
     <row r="591">
@@ -3056,7 +3056,7 @@
     </row>
     <row r="600">
       <c r="A600" s="0">
-        <v>0.91036296770687342</v>
+        <v>0.093778944383191204</v>
       </c>
     </row>
     <row r="601">
@@ -3091,7 +3091,7 @@
     </row>
     <row r="607">
       <c r="A607" s="0">
-        <v>0.67194946828384483</v>
+        <v>0.064660053934744208</v>
       </c>
     </row>
     <row r="608">
@@ -3101,17 +3101,17 @@
     </row>
     <row r="609">
       <c r="A609" s="0">
-        <v>5.5005683339934812</v>
+        <v>0.092080451588521003</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="0">
-        <v>1.4603517578100216</v>
+        <v>0.14053026617499831</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="0">
-        <v>0.8385327797075689</v>
+        <v>0.10740047855293326</v>
       </c>
     </row>
     <row r="612">
@@ -3121,7 +3121,7 @@
     </row>
     <row r="613">
       <c r="A613" s="0">
-        <v>0.8132448797249292</v>
+        <v>0.084326931246284001</v>
       </c>
     </row>
     <row r="614">
@@ -3131,22 +3131,22 @@
     </row>
     <row r="615">
       <c r="A615" s="0">
-        <v>0.88563677311185396</v>
+        <v>0.047623779141562836</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="0">
-        <v>0.92160657360008724</v>
+        <v>0.083978458492883087</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="0">
-        <v>0.2270237339864295</v>
+        <v>0.088729219696152009</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="0">
-        <v>0.97164718157957419</v>
+        <v>0.1112528279026264</v>
       </c>
     </row>
     <row r="619">
@@ -3156,7 +3156,7 @@
     </row>
     <row r="620">
       <c r="A620" s="0">
-        <v>1.054971742721863</v>
+        <v>0.088595744402743148</v>
       </c>
     </row>
     <row r="621">
@@ -3166,32 +3166,32 @@
     </row>
     <row r="622">
       <c r="A622" s="0">
-        <v>1.0279966525257385</v>
+        <v>0.093929437679508662</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="0">
-        <v>1.2263206737870769</v>
+        <v>0.087869200783635651</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="0">
-        <v>0.76461924529287473</v>
+        <v>0.083298129443603139</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="0">
-        <v>1.7575158510222011</v>
+        <v>0.098974311434845197</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="0">
-        <v>0.8639141343845288</v>
+        <v>0.11210305825191512</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="0">
-        <v>0.89916104545153419</v>
+        <v>0.11686827282128585</v>
       </c>
     </row>
     <row r="628">
@@ -3211,27 +3211,27 @@
     </row>
     <row r="631">
       <c r="A631" s="0">
-        <v>0.85291243074706669</v>
+        <v>0.09344241692006762</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="0">
-        <v>1.269889236081633</v>
+        <v>0.12893870270129137</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="0">
-        <v>1.3937241028567007</v>
+        <v>0.17457961447940848</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="0">
-        <v>0.8668357390405369</v>
+        <v>0.089967277824697656</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="0">
-        <v>0.90047406916889772</v>
+        <v>0.10233125691542257</v>
       </c>
     </row>
     <row r="636">
@@ -3246,7 +3246,7 @@
     </row>
     <row r="638">
       <c r="A638" s="0">
-        <v>0.81753279688709879</v>
+        <v>0.082978304552082202</v>
       </c>
     </row>
     <row r="639">
@@ -3261,7 +3261,7 @@
     </row>
     <row r="641">
       <c r="A641" s="0">
-        <v>0.089131190816546774</v>
+        <v>0.079311144431288685</v>
       </c>
     </row>
     <row r="642">
@@ -3291,7 +3291,7 @@
     </row>
     <row r="647">
       <c r="A647" s="0">
-        <v>0.94705766985829953</v>
+        <v>0.029442253982840217</v>
       </c>
     </row>
     <row r="648">
@@ -3341,7 +3341,7 @@
     </row>
     <row r="657">
       <c r="A657" s="0">
-        <v>0.14837210640059578</v>
+        <v>0.09892863630107751</v>
       </c>
     </row>
     <row r="658">
@@ -3576,7 +3576,7 @@
     </row>
     <row r="704">
       <c r="A704" s="0">
-        <v>0.98064055884116474</v>
+        <v>0.097919497808649267</v>
       </c>
     </row>
     <row r="705">
@@ -3591,7 +3591,7 @@
     </row>
     <row r="707">
       <c r="A707" s="0">
-        <v>1.4162795929061891</v>
+        <v>0.073226347718251747</v>
       </c>
     </row>
     <row r="708">
@@ -3601,12 +3601,12 @@
     </row>
     <row r="709">
       <c r="A709" s="0">
-        <v>0.60557193105728091</v>
+        <v>0.090546414266777078</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="0">
-        <v>0.89633021814990887</v>
+        <v>0.097635513652656145</v>
       </c>
     </row>
     <row r="711">
@@ -3616,7 +3616,7 @@
     </row>
     <row r="712">
       <c r="A712" s="0">
-        <v>0.81176531563868959</v>
+        <v>0.45645565156157242</v>
       </c>
     </row>
     <row r="713">
@@ -3626,17 +3626,17 @@
     </row>
     <row r="714">
       <c r="A714" s="0">
-        <v>0.84124218572767984</v>
+        <v>0.088798851254688324</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="0">
-        <v>1.1327999439051002</v>
+        <v>0.093364688752120506</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="0">
-        <v>0.8891360743811525</v>
+        <v>0.10774022592430307</v>
       </c>
     </row>
     <row r="717">
@@ -3646,17 +3646,17 @@
     </row>
     <row r="718">
       <c r="A718" s="0">
-        <v>0.95609498680364158</v>
+        <v>0.085099379763149352</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="0">
-        <v>0.94589009212378883</v>
+        <v>0.096840528752067154</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="0">
-        <v>0.96035129454529311</v>
+        <v>0.0926853997325289</v>
       </c>
     </row>
     <row r="721">
@@ -3666,7 +3666,7 @@
     </row>
     <row r="722">
       <c r="A722" s="0">
-        <v>0.85720557535528608</v>
+        <v>0.050157879206928116</v>
       </c>
     </row>
     <row r="723">
@@ -3676,7 +3676,7 @@
     </row>
     <row r="724">
       <c r="A724" s="0">
-        <v>0.91136630135980523</v>
+        <v>0.093893958802324998</v>
       </c>
     </row>
     <row r="725">
@@ -3686,7 +3686,7 @@
     </row>
     <row r="726">
       <c r="A726" s="0">
-        <v>0.94434932942415917</v>
+        <v>0.032872830407555793</v>
       </c>
     </row>
     <row r="727">
@@ -3706,27 +3706,27 @@
     </row>
     <row r="730">
       <c r="A730" s="0">
-        <v>0.86065925043277647</v>
+        <v>0.093808874266781667</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="0">
-        <v>0.12136929380142882</v>
+        <v>0.097518420140807999</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="0">
-        <v>1.8894091009752436</v>
+        <v>0.10024149938607199</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="0">
-        <v>0.81962283827503934</v>
+        <v>0.10392858421447899</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="0">
-        <v>1.0052600105809211</v>
+        <v>0.098548190559706039</v>
       </c>
     </row>
     <row r="735">
@@ -3736,12 +3736,12 @@
     </row>
     <row r="736">
       <c r="A736" s="0">
-        <v>2.9791996299353403</v>
+        <v>0.085241648931140002</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="0">
-        <v>1.2232506021271796</v>
+        <v>0.090134337305282267</v>
       </c>
     </row>
     <row r="738">
@@ -3841,7 +3841,7 @@
     </row>
     <row r="757">
       <c r="A757" s="0">
-        <v>0.99717106520036392</v>
+        <v>0.084654056164344266</v>
       </c>
     </row>
     <row r="758">
@@ -3976,7 +3976,7 @@
     </row>
     <row r="784">
       <c r="A784" s="0">
-        <v>0.8892527518224701</v>
+        <v>0.094302511494903443</v>
       </c>
     </row>
     <row r="785">
@@ -3986,7 +3986,7 @@
     </row>
     <row r="786">
       <c r="A786" s="0">
-        <v>0.93753714240408936</v>
+        <v>0.095690104262112982</v>
       </c>
     </row>
     <row r="787">
@@ -3996,7 +3996,7 @@
     </row>
     <row r="788">
       <c r="A788" s="0">
-        <v>21.629020710398471</v>
+        <v>0.16638599569650039</v>
       </c>
     </row>
     <row r="789">
@@ -4106,7 +4106,7 @@
     </row>
     <row r="810">
       <c r="A810" s="0">
-        <v>0.88993067240691304</v>
+        <v>0.09802859256382418</v>
       </c>
     </row>
     <row r="811">
@@ -4186,32 +4186,32 @@
     </row>
     <row r="826">
       <c r="A826" s="0">
-        <v>0.104336987397659</v>
+        <v>0.088506600431251664</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" s="0">
-        <v>0.78629019193294836</v>
+        <v>0.089483268179180314</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="0">
-        <v>0.93429519004243378</v>
+        <v>0.24820227229010772</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="0">
-        <v>0.9734474069745237</v>
+        <v>0.10964368608051026</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="0">
-        <v>0.7756520342181098</v>
+        <v>0.068304986116025618</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" s="0">
-        <v>1.5820564141419651</v>
+        <v>0.1328587025332062</v>
       </c>
     </row>
     <row r="832">
@@ -4311,12 +4311,12 @@
     </row>
     <row r="851">
       <c r="A851" s="0">
-        <v>0.93280606444221204</v>
+        <v>0.10154259351330244</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" s="0">
-        <v>0.1920284612293531</v>
+        <v>0.082879138999088997</v>
       </c>
     </row>
     <row r="853">
@@ -4331,7 +4331,7 @@
     </row>
     <row r="855">
       <c r="A855" s="0">
-        <v>5.2919078752555384</v>
+        <v>0.086125154589786146</v>
       </c>
     </row>
     <row r="856">
@@ -4366,22 +4366,22 @@
     </row>
     <row r="862">
       <c r="A862" s="0">
-        <v>0.93810160221360306</v>
+        <v>0.16422734137227421</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="0">
-        <v>1.3434462805147398</v>
+        <v>0.10941162916996162</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" s="0">
-        <v>0.98297188527394852</v>
+        <v>0.093133599615730547</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="0">
-        <v>0.9930946830358427</v>
+        <v>0.095308854824828884</v>
       </c>
     </row>
     <row r="866">
@@ -4586,7 +4586,7 @@
     </row>
     <row r="906">
       <c r="A906" s="0">
-        <v>0.89057156865698495</v>
+        <v>0.078261448209803977</v>
       </c>
     </row>
     <row r="907">
@@ -4636,7 +4636,7 @@
     </row>
     <row r="916">
       <c r="A916" s="0">
-        <v>0.96122253332571639</v>
+        <v>0.081766534904610305</v>
       </c>
     </row>
     <row r="917">
@@ -4751,17 +4751,17 @@
     </row>
     <row r="939">
       <c r="A939" s="0">
-        <v>0.9523415867886551</v>
+        <v>0.094900437789724956</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" s="0">
-        <v>0.92755235728543006</v>
+        <v>0.097119215502746256</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="0">
-        <v>0.97492916194902757</v>
+        <v>0.10193994811604382</v>
       </c>
     </row>
     <row r="942">
@@ -4771,12 +4771,12 @@
     </row>
     <row r="943">
       <c r="A943" s="0">
-        <v>1.2242561987227276</v>
+        <v>0.11131634621470199</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" s="0">
-        <v>0.23451828168511576</v>
+        <v>0.054287276741185317</v>
       </c>
     </row>
     <row r="945">
@@ -4786,22 +4786,22 @@
     </row>
     <row r="946">
       <c r="A946" s="0">
-        <v>0.83083462380369622</v>
+        <v>0.13349474602794234</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" s="0">
-        <v>0.90095627419311886</v>
+        <v>0.092788944785661354</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" s="0">
-        <v>0.96978462793224551</v>
+        <v>0.085583057004060575</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" s="0">
-        <v>0.57530654140801163</v>
+        <v>0.099748702289262262</v>
       </c>
     </row>
     <row r="950">
@@ -4816,22 +4816,22 @@
     </row>
     <row r="952">
       <c r="A952" s="0">
-        <v>0.86673363182708529</v>
+        <v>0.069027786484599729</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" s="0">
-        <v>0.17968108873150213</v>
+        <v>0.023345846997089484</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" s="0">
-        <v>4.570270696087535</v>
+        <v>0.067397734099089168</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" s="0">
-        <v>1.1851787509049105</v>
+        <v>0.37505032077116168</v>
       </c>
     </row>
     <row r="956">
@@ -4871,12 +4871,12 @@
     </row>
     <row r="963">
       <c r="A963" s="0">
-        <v>2.7399782742460386</v>
+        <v>0.09969622548294256</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" s="0">
-        <v>0.54075760686038798</v>
+        <v>0.10613499245201678</v>
       </c>
     </row>
     <row r="965">
